--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/20/seed4/result_data_KNN.xlsx
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.868</v>
+        <v>-20.912</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.248</v>
+        <v>-22.005</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.168</v>
+        <v>-20.86</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.078</v>
+        <v>-21.868</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.078</v>
+        <v>-21.883</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
